--- a/Projektdokumentation/To-do Liste.xlsx
+++ b/Projektdokumentation/To-do Liste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\Desktop\Wiss Sachen\3. Semester\Module 294\Aufgaben\8B-SideQuest\LB-Projekt-M294-295_Ethan-Shrestha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\Desktop\Wiss Sachen\3. Semester\Module 294\Aufgaben\8B-SideQuest\LB-Projekt-M294-295_Ethan-Shrestha\Projektdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE185C32-16DE-484B-9C79-3B1AA2B86DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3A9359-EA6A-4E35-9A2C-2B1890C08FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4644" yWindow="528" windowWidth="14928" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6264" yWindow="528" windowWidth="14928" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -543,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +616,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="6">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -675,51 +675,76 @@
         <v>26</v>
       </c>
       <c r="C11" s="6">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="6">
         <f>(C3+C4+C5+C6+C7+C8+C9+C10+C11)/900*100</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>72.222222222222214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="6"/>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="C18" s="6">
+        <f>(C14+C15+C16+C17)/400*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="6">
-        <v>100</v>
-      </c>
+    <row r="20" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="6">
@@ -728,7 +753,7 @@
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="6">
@@ -736,179 +761,136 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2"/>
+      <c r="A23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3"/>
       <c r="C23" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3"/>
       <c r="C24" s="6">
-        <f>(C20+C21+C22+C23)/400*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C27" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="6">
-        <v>100</v>
-      </c>
+        <f>(C21+C22+C23+C24+C25+C26)/600*100</f>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="6">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="B30" s="3"/>
       <c r="C30" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C32" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="6">
-        <f>(C27+C28+C29+C30+C31+C32)/600*100</f>
-        <v>38.333333333333336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="6"/>
+        <f>(C29+C30+C31)/300*100</f>
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B35" s="3"/>
       <c r="C35" s="6">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="6">
-        <f>(C35+C36+C37)/300*100</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C44">
-        <f>(C40+C41+C42+C43)/400*100</f>
-        <v>27.500000000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A45" s="4"/>
+      <c r="C38">
+        <f>(C34+C35+C36+C37)/400*100</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
